--- a/4 - Závislost povrchového napětí na koncentraci povrchově aktivní látky/Data.xlsx
+++ b/4 - Závislost povrchového napětí na koncentraci povrchově aktivní látky/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\Praktikum-I\4 - Závislost povrchového napětí na koncentraci povrchově aktivní látky\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E51E63-F1A3-45F9-969B-66731E9E26DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF826A5E-53A3-4979-879C-18EA10F85964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E046E8B8-C16B-45FA-8E82-8072ADF84730}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Laboratorní podmínky</t>
   </si>
@@ -56,9 +56,6 @@
     <t>m0</t>
   </si>
   <si>
-    <t>Průměry rámčku</t>
-  </si>
-  <si>
     <t>0,79 mm</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>Sigma / N*m^-1</t>
   </si>
   <si>
-    <t>Sigma / 10^3 N*m^-1</t>
-  </si>
-  <si>
     <t>Destilovná voda</t>
   </si>
   <si>
@@ -98,12 +92,6 @@
     <t>75/25 V/L</t>
   </si>
   <si>
-    <t>24,63 g</t>
-  </si>
-  <si>
-    <t>Hmotnost piknometru</t>
-  </si>
-  <si>
     <t>Hmotnost piknometru se vzorkem / g</t>
   </si>
   <si>
@@ -129,12 +117,37 @@
   </si>
   <si>
     <t>Tlak / hPa</t>
+  </si>
+  <si>
+    <t>Průměry rámečku</t>
+  </si>
+  <si>
+    <t>Chyba napětí</t>
+  </si>
+  <si>
+    <t>Sigma / 10^-3 N*m^-1</t>
+  </si>
+  <si>
+    <t>Napětí s korekcí</t>
+  </si>
+  <si>
+    <t>Hmotnost piknometru / g</t>
+  </si>
+  <si>
+    <t>Arit. Prům.</t>
+  </si>
+  <si>
+    <t>Chyba</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -165,8 +178,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -501,67 +517,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20CF96E-3CC2-4E47-AD67-B178D7198D37}">
-  <dimension ref="B3:O41"/>
+  <dimension ref="B3:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="H20" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35:P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.88671875" customWidth="1"/>
     <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.109375" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" customWidth="1"/>
     <col min="12" max="12" width="17.5546875" customWidth="1"/>
     <col min="14" max="14" width="29.77734375" customWidth="1"/>
     <col min="15" max="15" width="10.77734375" customWidth="1"/>
+    <col min="17" max="17" width="11.5546875" customWidth="1"/>
+    <col min="20" max="20" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
         <v>6</v>
       </c>
-      <c r="K3" t="s">
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" t="s">
         <v>8</v>
       </c>
-      <c r="N3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>9</v>
       </c>
-      <c r="L4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <v>24.63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>24</v>
       </c>
@@ -572,19 +591,19 @@
         <v>989.2</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -593,31 +612,43 @@
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" t="s">
         <v>18</v>
       </c>
-      <c r="N10" t="s">
-        <v>22</v>
-      </c>
       <c r="O10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>28</v>
+      </c>
+      <c r="T10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U10" t="s">
+        <v>32</v>
+      </c>
+      <c r="W10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D11">
         <v>80</v>
       </c>
@@ -632,7 +663,7 @@
         <f>F11*0.000001</f>
         <v>3.3E-4</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <f>G11*9.81</f>
         <v>3.2373000000000002E-3</v>
       </c>
@@ -640,11 +671,11 @@
         <f>H11/(2*0.02)</f>
         <v>8.0932500000000004E-2</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <f>I11*1000</f>
         <v>80.932500000000005</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="3">
         <f>(J11+J12+J13)/3</f>
         <v>83.221499999999992</v>
       </c>
@@ -654,8 +685,32 @@
       <c r="O11">
         <v>23.4</v>
       </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="Q11" s="1">
+        <f>1/2 * SQRT(((0.02085*0.02085*0.00003*0.00003)+(H11*H11*0.00014*0.00014))/(0.02085^4))</f>
+        <v>8.8842650072618111E-4</v>
+      </c>
+      <c r="R11" s="3">
+        <f>Q11*1000</f>
+        <v>0.88842650072618112</v>
+      </c>
+      <c r="T11" s="2">
+        <f>(H11/(2*0.02085))-0.000395*(SQRT((H11*P35*9.81)/0.02085)-(H11/0.02085^2))</f>
+        <v>6.525142091395042E-2</v>
+      </c>
+      <c r="U11" s="2">
+        <f>(T11+T12+T13)/3</f>
+        <v>6.7315901702508271E-2</v>
+      </c>
+      <c r="V11" s="3">
+        <f>U11*1000</f>
+        <v>67.31590170250827</v>
+      </c>
+      <c r="W11" s="3">
+        <f>R11/J11*V11</f>
+        <v>0.73895197841147864</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D12">
         <v>75</v>
       </c>
@@ -670,7 +725,7 @@
         <f t="shared" ref="G12:G33" si="1">F12*0.000001</f>
         <v>3.4600000000000001E-4</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <f t="shared" ref="H12:H33" si="2">G12*9.81</f>
         <v>3.3942600000000001E-3</v>
       </c>
@@ -678,12 +733,30 @@
         <f t="shared" ref="I12:I33" si="3">H12/(2*0.02)</f>
         <v>8.4856500000000001E-2</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <f t="shared" ref="J12:J33" si="4">I12*1000</f>
         <v>84.856499999999997</v>
       </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L12" s="3"/>
+      <c r="Q12" s="1">
+        <f>1/2 * SQRT(((0.02085*0.02085*0.00003*0.00003)+(H12*H12*0.00014*0.00014))/(0.02085^4))</f>
+        <v>9.0348769209859189E-4</v>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" ref="R12:R33" si="5">Q12*1000</f>
+        <v>0.90348769209859192</v>
+      </c>
+      <c r="T12" s="2">
+        <f>(H12/(2*0.02085))-0.000395*(SQRT((H12*P35*9.81)/0.02085)-(H12/0.02085^2))</f>
+        <v>6.8790993587912588E-2</v>
+      </c>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3">
+        <f>R12/J12*V11</f>
+        <v>0.71672869692639785</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D13">
         <v>90</v>
       </c>
@@ -698,7 +771,7 @@
         <f t="shared" si="1"/>
         <v>3.4199999999999996E-4</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <f t="shared" si="2"/>
         <v>3.3550199999999998E-3</v>
       </c>
@@ -706,14 +779,41 @@
         <f t="shared" si="3"/>
         <v>8.3875499999999992E-2</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <f t="shared" si="4"/>
         <v>83.875499999999988</v>
       </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L13" s="3"/>
+      <c r="Q13" s="1">
+        <f>1/2 * SQRT(((0.02085*0.02085*0.00003*0.00003)+(H13*H13*0.00014*0.00014))/(0.02085^4))</f>
+        <v>8.9967946974937407E-4</v>
+      </c>
+      <c r="R13" s="3">
+        <f t="shared" si="5"/>
+        <v>0.89967946974937407</v>
+      </c>
+      <c r="T13" s="2">
+        <f>(H13/(2*0.02085))-0.000395*(SQRT((H13*P35*9.81)/0.02085)-(H13/0.02085^2))</f>
+        <v>6.7905290605661819E-2</v>
+      </c>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3">
+        <f>R13/J13*V11</f>
+        <v>0.72205512634098912</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="J14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="3"/>
+      <c r="T14" s="2"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <v>49</v>
@@ -729,7 +829,7 @@
         <f t="shared" si="1"/>
         <v>1.3799999999999999E-4</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <f t="shared" si="2"/>
         <v>1.35378E-3</v>
       </c>
@@ -737,11 +837,11 @@
         <f t="shared" si="3"/>
         <v>3.38445E-2</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="3">
         <f t="shared" si="4"/>
         <v>33.844499999999996</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="3">
         <f>(J15+J16+J17)/3</f>
         <v>34.171500000000002</v>
       </c>
@@ -751,8 +851,32 @@
       <c r="O15">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="Q15" s="1">
+        <f>1/2 * SQRT(((0.02085*0.02085*0.00003*0.00003)+(H15*H15*0.00014*0.00014))/(0.02085^4))</f>
+        <v>7.5172510599325862E-4</v>
+      </c>
+      <c r="R15" s="3">
+        <f t="shared" si="5"/>
+        <v>0.75172510599325859</v>
+      </c>
+      <c r="T15" s="2">
+        <f>(H15/(2*0.02085))-0.000395*(SQRT((H15*P36*9.81)/0.02085)-(H15/0.02085^2))</f>
+        <v>2.4813999651460104E-2</v>
+      </c>
+      <c r="U15" s="2">
+        <f>(T15+T16+T17)/3</f>
+        <v>2.5096843349395187E-2</v>
+      </c>
+      <c r="V15" s="3">
+        <f>U15*1000</f>
+        <v>25.096843349395186</v>
+      </c>
+      <c r="W15" s="3">
+        <f>R15/J15*V15</f>
+        <v>0.55742963337973106</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D16">
         <v>51</v>
       </c>
@@ -767,7 +891,7 @@
         <f t="shared" si="1"/>
         <v>1.3899999999999999E-4</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <f t="shared" si="2"/>
         <v>1.36359E-3</v>
       </c>
@@ -775,12 +899,30 @@
         <f t="shared" si="3"/>
         <v>3.4089750000000002E-2</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="3">
         <f t="shared" si="4"/>
         <v>34.089750000000002</v>
       </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+      <c r="Q16" s="1">
+        <f>1/2 * SQRT(((0.02085*0.02085*0.00003*0.00003)+(H16*H16*0.00014*0.00014))/(0.02085^4))</f>
+        <v>7.5218469310109131E-4</v>
+      </c>
+      <c r="R16" s="3">
+        <f t="shared" si="5"/>
+        <v>0.75218469310109126</v>
+      </c>
+      <c r="T16" s="2">
+        <f>(H16/(2*0.02085))-0.000395*(SQRT((H16*P36*9.81)/0.02085)-(H16/0.02085^2))</f>
+        <v>2.5026046236491108E-2</v>
+      </c>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3">
+        <f>R16/J16*V15</f>
+        <v>0.55375769586374146</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D17">
         <v>50</v>
       </c>
@@ -795,7 +937,7 @@
         <f t="shared" si="1"/>
         <v>1.4099999999999998E-4</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <f t="shared" si="2"/>
         <v>1.38321E-3</v>
       </c>
@@ -803,14 +945,42 @@
         <f t="shared" si="3"/>
         <v>3.458025E-2</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="3">
         <f t="shared" si="4"/>
         <v>34.580249999999999</v>
       </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+      <c r="Q17" s="1">
+        <f>1/2 * SQRT(((0.02085*0.02085*0.00003*0.00003)+(H17*H17*0.00014*0.00014))/(0.02085^4))</f>
+        <v>7.5311296563037558E-4</v>
+      </c>
+      <c r="R17" s="3">
+        <f t="shared" si="5"/>
+        <v>0.75311296563037555</v>
+      </c>
+      <c r="T17" s="2">
+        <f>(H17/(2*0.02085))-0.000395*(SQRT((H17*P36*9.81)/0.02085)-(H17/0.02085^2))</f>
+        <v>2.5450484160234342E-2</v>
+      </c>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3">
+        <f>R17/J17*V15</f>
+        <v>0.54657667665282861</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="H18" s="1"/>
+      <c r="J18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="3"/>
+      <c r="T18" s="2"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D19">
         <v>57</v>
@@ -826,7 +996,7 @@
         <f t="shared" si="1"/>
         <v>1.6199999999999998E-4</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <f t="shared" si="2"/>
         <v>1.5892199999999999E-3</v>
       </c>
@@ -834,11 +1004,11 @@
         <f t="shared" si="3"/>
         <v>3.9730499999999995E-2</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="3">
         <f t="shared" si="4"/>
         <v>39.730499999999992</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="3">
         <f>(J19+J20+J21)/3</f>
         <v>41.528999999999996</v>
       </c>
@@ -848,8 +1018,32 @@
       <c r="O19">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="Q19" s="1">
+        <f>1/2 * SQRT(((0.02085*0.02085*0.00003*0.00003)+(H19*H19*0.00014*0.00014))/(0.02085^4))</f>
+        <v>7.6358120783522488E-4</v>
+      </c>
+      <c r="R19" s="3">
+        <f t="shared" si="5"/>
+        <v>0.76358120783522487</v>
+      </c>
+      <c r="T19" s="2">
+        <f>(H19/(2*0.02085))-0.000395*(SQRT((H19*P37*9.81)/0.02085)-(H19/0.02085^2))</f>
+        <v>2.9255673201695937E-2</v>
+      </c>
+      <c r="U19" s="2">
+        <f>(T19+T20+T21)/3</f>
+        <v>3.0816969644801507E-2</v>
+      </c>
+      <c r="V19" s="3">
+        <f>U19*1000</f>
+        <v>30.816969644801507</v>
+      </c>
+      <c r="W19" s="3">
+        <f t="shared" ref="W12:W33" si="6">R19/J19*V19</f>
+        <v>0.59227190453679168</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D20">
         <v>51</v>
       </c>
@@ -864,7 +1058,7 @@
         <f t="shared" si="1"/>
         <v>1.74E-4</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <f t="shared" si="2"/>
         <v>1.7069400000000001E-3</v>
       </c>
@@ -872,12 +1066,30 @@
         <f t="shared" si="3"/>
         <v>4.2673500000000003E-2</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="3">
         <f t="shared" si="4"/>
         <v>42.673500000000004</v>
       </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+      <c r="Q20" s="1">
+        <f>1/2 * SQRT(((0.02085*0.02085*0.00003*0.00003)+(H20*H20*0.00014*0.00014))/(0.02085^4))</f>
+        <v>7.7014090367092877E-4</v>
+      </c>
+      <c r="R20" s="3">
+        <f t="shared" si="5"/>
+        <v>0.7701409036709288</v>
+      </c>
+      <c r="T20" s="2">
+        <f>(H20/(2*0.02085))-0.000395*(SQRT((H20*P37*9.81)/0.02085)-(H20/0.02085^2))</f>
+        <v>3.1811022912331469E-2</v>
+      </c>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3">
+        <f>R20/J20*V19</f>
+        <v>0.55616269700509713</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D21">
         <v>52</v>
       </c>
@@ -892,7 +1104,7 @@
         <f t="shared" si="1"/>
         <v>1.7199999999999998E-4</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <f t="shared" si="2"/>
         <v>1.68732E-3</v>
       </c>
@@ -900,14 +1112,42 @@
         <f t="shared" si="3"/>
         <v>4.2182999999999998E-2</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="3">
         <f t="shared" si="4"/>
         <v>42.183</v>
       </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+      <c r="Q21" s="1">
+        <f>1/2 * SQRT(((0.02085*0.02085*0.00003*0.00003)+(H21*H21*0.00014*0.00014))/(0.02085^4))</f>
+        <v>7.69019060383078E-4</v>
+      </c>
+      <c r="R21" s="3">
+        <f t="shared" si="5"/>
+        <v>0.76901906038307799</v>
+      </c>
+      <c r="T21" s="2">
+        <f>(H21/(2*0.02085))-0.000395*(SQRT((H21*P37*9.81)/0.02085)-(H21/0.02085^2))</f>
+        <v>3.1384212820377122E-2</v>
+      </c>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3">
+        <f>R21/J21*V19</f>
+        <v>0.5618101377355591</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="H22" s="1"/>
+      <c r="J22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="3"/>
+      <c r="T22" s="2"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23">
         <v>47</v>
@@ -923,7 +1163,7 @@
         <f t="shared" si="1"/>
         <v>2.23E-4</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <f t="shared" si="2"/>
         <v>2.1876300000000003E-3</v>
       </c>
@@ -931,11 +1171,11 @@
         <f t="shared" si="3"/>
         <v>5.4690750000000003E-2</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="3">
         <f t="shared" si="4"/>
         <v>54.690750000000001</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="3">
         <f>(J23+J24+J25)/3</f>
         <v>54.36375000000001</v>
       </c>
@@ -945,8 +1185,32 @@
       <c r="O23">
         <v>26.8</v>
       </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="Q23" s="1">
+        <f>1/2 * SQRT(((0.02085*0.02085*0.00003*0.00003)+(H23*H23*0.00014*0.00014))/(0.02085^4))</f>
+        <v>8.0103473057345433E-4</v>
+      </c>
+      <c r="R23" s="3">
+        <f t="shared" si="5"/>
+        <v>0.80103473057345431</v>
+      </c>
+      <c r="T23" s="2">
+        <f>(H23/(2*0.02085))-0.000395*(SQRT((H23*P38*9.81)/0.02085)-(H23/0.02085^2))</f>
+        <v>4.2055635509834273E-2</v>
+      </c>
+      <c r="U23" s="2">
+        <f>(T23+T24+T25)/3</f>
+        <v>4.1767404615716715E-2</v>
+      </c>
+      <c r="V23" s="3">
+        <f>U23*1000</f>
+        <v>41.767404615716714</v>
+      </c>
+      <c r="W23" s="3">
+        <f t="shared" si="6"/>
+        <v>0.61175137848910632</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D24">
         <v>52</v>
       </c>
@@ -961,7 +1225,7 @@
         <f t="shared" si="1"/>
         <v>2.24E-4</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <f t="shared" si="2"/>
         <v>2.1974400000000002E-3</v>
       </c>
@@ -969,12 +1233,30 @@
         <f t="shared" si="3"/>
         <v>5.4936000000000006E-2</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="3">
         <f t="shared" si="4"/>
         <v>54.936000000000007</v>
       </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+      <c r="Q24" s="1">
+        <f>1/2 * SQRT(((0.02085*0.02085*0.00003*0.00003)+(H24*H24*0.00014*0.00014))/(0.02085^4))</f>
+        <v>8.0173063152847877E-4</v>
+      </c>
+      <c r="R24" s="3">
+        <f t="shared" si="5"/>
+        <v>0.80173063152847879</v>
+      </c>
+      <c r="T24" s="2">
+        <f>(H24/(2*0.02085))-0.000395*(SQRT((H24*P38*9.81)/0.02085)-(H24/0.02085^2))</f>
+        <v>4.227204444697362E-2</v>
+      </c>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3">
+        <f>R24/J24*V23</f>
+        <v>0.60954943352016999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D25">
         <v>53</v>
       </c>
@@ -989,7 +1271,7 @@
         <f t="shared" si="1"/>
         <v>2.1799999999999999E-4</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <f t="shared" si="2"/>
         <v>2.1385800000000002E-3</v>
       </c>
@@ -997,14 +1279,42 @@
         <f t="shared" si="3"/>
         <v>5.3464500000000005E-2</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="3">
         <f t="shared" si="4"/>
         <v>53.464500000000008</v>
       </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L25" s="3"/>
+      <c r="Q25" s="1">
+        <f>1/2 * SQRT(((0.02085*0.02085*0.00003*0.00003)+(H25*H25*0.00014*0.00014))/(0.02085^4))</f>
+        <v>7.9759304575012654E-4</v>
+      </c>
+      <c r="R25" s="3">
+        <f t="shared" si="5"/>
+        <v>0.79759304575012657</v>
+      </c>
+      <c r="T25" s="2">
+        <f>(H25/(2*0.02085))-0.000395*(SQRT((H25*P38*9.81)/0.02085)-(H25/0.02085^2))</f>
+        <v>4.0974533890342252E-2</v>
+      </c>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3">
+        <f>R25/J25*V23</f>
+        <v>0.62309366889295481</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="H26" s="1"/>
+      <c r="J26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="3"/>
+      <c r="T26" s="2"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D27">
         <v>46</v>
@@ -1013,14 +1323,14 @@
         <v>323</v>
       </c>
       <c r="F27">
-        <f t="shared" ref="F27:F33" si="5">E27-D27</f>
+        <f t="shared" ref="F27:F33" si="7">E27-D27</f>
         <v>277</v>
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
         <v>2.7700000000000001E-4</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <f t="shared" si="2"/>
         <v>2.7173700000000002E-3</v>
       </c>
@@ -1028,11 +1338,11 @@
         <f t="shared" si="3"/>
         <v>6.7934250000000002E-2</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="3">
         <f t="shared" si="4"/>
         <v>67.934250000000006</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="3">
         <f>(J27+J28+J29)/3</f>
         <v>67.280250000000009</v>
       </c>
@@ -1042,8 +1352,32 @@
       <c r="O27">
         <v>24.6</v>
       </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="Q27" s="1">
+        <f>1/2 * SQRT(((0.02085*0.02085*0.00003*0.00003)+(H27*H27*0.00014*0.00014))/(0.02085^4))</f>
+        <v>8.4203784772678429E-4</v>
+      </c>
+      <c r="R27" s="3">
+        <f t="shared" si="5"/>
+        <v>0.84203784772678425</v>
+      </c>
+      <c r="T27" s="2">
+        <f>(H27/(2*0.02085))-0.000395*(SQRT((H27*P39*9.81)/0.02085)-(H27/0.02085^2))</f>
+        <v>5.3677631161579344E-2</v>
+      </c>
+      <c r="U27" s="2">
+        <f>(T27+T28+T29)/3</f>
+        <v>5.3094084908722888E-2</v>
+      </c>
+      <c r="V27" s="3">
+        <f>U27*1000</f>
+        <v>53.094084908722891</v>
+      </c>
+      <c r="W27" s="3">
+        <f t="shared" si="6"/>
+        <v>0.65809557010733399</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D28">
         <v>51</v>
       </c>
@@ -1051,14 +1385,14 @@
         <v>321</v>
       </c>
       <c r="F28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>270</v>
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
         <v>2.7E-4</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <f t="shared" si="2"/>
         <v>2.6487000000000004E-3</v>
       </c>
@@ -1066,12 +1400,30 @@
         <f t="shared" si="3"/>
         <v>6.6217500000000012E-2</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="3">
         <f t="shared" si="4"/>
         <v>66.217500000000015</v>
       </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L28" s="3"/>
+      <c r="Q28" s="1">
+        <f>1/2 * SQRT(((0.02085*0.02085*0.00003*0.00003)+(H28*H28*0.00014*0.00014))/(0.02085^4))</f>
+        <v>8.3634533375869468E-4</v>
+      </c>
+      <c r="R28" s="3">
+        <f t="shared" si="5"/>
+        <v>0.83634533375869469</v>
+      </c>
+      <c r="T28" s="2">
+        <f>(H28/(2*0.02085))-0.000395*(SQRT((H28*P39*9.81)/0.02085)-(H28/0.02085^2))</f>
+        <v>5.2145943364618558E-2</v>
+      </c>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3">
+        <f>R28/J28*V27</f>
+        <v>0.67059297260691375</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D29">
         <v>53</v>
       </c>
@@ -1079,14 +1431,14 @@
         <v>329</v>
       </c>
       <c r="F29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>276</v>
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
         <v>2.7599999999999999E-4</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="1">
         <f t="shared" si="2"/>
         <v>2.7075599999999999E-3</v>
       </c>
@@ -1094,14 +1446,42 @@
         <f t="shared" si="3"/>
         <v>6.7688999999999999E-2</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="3">
         <f t="shared" si="4"/>
         <v>67.688999999999993</v>
       </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L29" s="3"/>
+      <c r="Q29" s="1">
+        <f>1/2 * SQRT(((0.02085*0.02085*0.00003*0.00003)+(H29*H29*0.00014*0.00014))/(0.02085^4))</f>
+        <v>8.4121809129391125E-4</v>
+      </c>
+      <c r="R29" s="3">
+        <f t="shared" si="5"/>
+        <v>0.84121809129391123</v>
+      </c>
+      <c r="T29" s="2">
+        <f>(H29/(2*0.02085))-0.000395*(SQRT((H29*P39*9.81)/0.02085)-(H29/0.02085^2))</f>
+        <v>5.3458680199970778E-2</v>
+      </c>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3">
+        <f>R29/J29*V27</f>
+        <v>0.65983697153027421</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="H30" s="1"/>
+      <c r="J30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="3"/>
+      <c r="T30" s="2"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D31">
         <v>52</v>
@@ -1110,14 +1490,14 @@
         <v>363</v>
       </c>
       <c r="F31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>311</v>
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
         <v>3.1099999999999997E-4</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="1">
         <f t="shared" si="2"/>
         <v>3.05091E-3</v>
       </c>
@@ -1125,11 +1505,11 @@
         <f t="shared" si="3"/>
         <v>7.627275E-2</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="3">
         <f t="shared" si="4"/>
         <v>76.272750000000002</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="3">
         <f>(J31+J32+J33)/3</f>
         <v>76.191000000000003</v>
       </c>
@@ -1139,8 +1519,32 @@
       <c r="O31">
         <v>23.6</v>
       </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="Q31" s="1">
+        <f>1/2 * SQRT(((0.02085*0.02085*0.00003*0.00003)+(H31*H31*0.00014*0.00014))/(0.02085^4))</f>
+        <v>8.7115572190322316E-4</v>
+      </c>
+      <c r="R31" s="3">
+        <f t="shared" si="5"/>
+        <v>0.8711557219032231</v>
+      </c>
+      <c r="T31" s="2">
+        <f>(H31/(2*0.02085))-0.000395*(SQRT((H31*P40*9.81)/0.02085)-(H31/0.02085^2))</f>
+        <v>6.1135410943089524E-2</v>
+      </c>
+      <c r="U31" s="2">
+        <f>(T31+T32+T33)/3</f>
+        <v>6.1061985843911183E-2</v>
+      </c>
+      <c r="V31" s="3">
+        <f>U31*1000</f>
+        <v>61.061985843911181</v>
+      </c>
+      <c r="W31" s="3">
+        <f t="shared" si="6"/>
+        <v>0.69742468127472568</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D32">
         <v>53</v>
       </c>
@@ -1148,14 +1552,14 @@
         <v>362</v>
       </c>
       <c r="F32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>309</v>
       </c>
       <c r="G32">
         <f t="shared" si="1"/>
         <v>3.0899999999999998E-4</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <f t="shared" si="2"/>
         <v>3.0312899999999999E-3</v>
       </c>
@@ -1163,12 +1567,29 @@
         <f t="shared" si="3"/>
         <v>7.5782249999999995E-2</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="3">
         <f t="shared" si="4"/>
         <v>75.782249999999991</v>
       </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+      <c r="Q32" s="1">
+        <f>1/2 * SQRT(((0.02085*0.02085*0.00003*0.00003)+(H32*H32*0.00014*0.00014))/(0.02085^4))</f>
+        <v>8.6937806032536327E-4</v>
+      </c>
+      <c r="R32" s="3">
+        <f t="shared" si="5"/>
+        <v>0.86937806032536324</v>
+      </c>
+      <c r="T32" s="2">
+        <f>(H32/(2*0.02085))-0.000395*(SQRT((H32*P40*9.81)/0.02085)-(H32/0.02085^2))</f>
+        <v>6.0694745399055533E-2</v>
+      </c>
+      <c r="W32" s="3">
+        <f>R32/J32*V31</f>
+        <v>0.7005063957931349</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D33">
         <v>49</v>
       </c>
@@ -1176,14 +1597,14 @@
         <v>361</v>
       </c>
       <c r="F33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>312</v>
       </c>
       <c r="G33">
         <f t="shared" si="1"/>
         <v>3.1199999999999999E-4</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="1">
         <f t="shared" si="2"/>
         <v>3.0607200000000003E-3</v>
       </c>
@@ -1191,25 +1612,84 @@
         <f t="shared" si="3"/>
         <v>7.6518000000000003E-2</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="3">
         <f t="shared" si="4"/>
         <v>76.518000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+      <c r="Q33" s="1">
+        <f>1/2 * SQRT(((0.02085*0.02085*0.00003*0.00003)+(H33*H33*0.00014*0.00014))/(0.02085^4))</f>
+        <v>8.7204748580397532E-4</v>
+      </c>
+      <c r="R33" s="3">
+        <f t="shared" si="5"/>
+        <v>0.87204748580397529</v>
+      </c>
+      <c r="T33" s="2">
+        <f>(H33/(2*0.02085))-0.000395*(SQRT((H33*P40*9.81)/0.02085)-(H33/0.02085^2))</f>
+        <v>6.1355801189588485E-2</v>
+      </c>
+      <c r="W33" s="3">
+        <f>R33/J33*V31</f>
+        <v>0.69590098059777672</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="H34" s="1"/>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="N35">
+        <f>N11-N4</f>
+        <v>24.7</v>
+      </c>
+      <c r="O35">
+        <f>N35/25</f>
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="P35">
+        <f>O35*1000</f>
+        <v>988</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="N36">
+        <f>N15-N4</f>
+        <v>19.84</v>
+      </c>
+      <c r="O36">
+        <f t="shared" ref="O36:O40" si="8">N36/25</f>
+        <v>0.79359999999999997</v>
+      </c>
+      <c r="P36">
+        <f t="shared" ref="P36:P40" si="9">O36*1000</f>
+        <v>793.6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="N37">
+        <f>N19-N4</f>
+        <v>22.73</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="8"/>
+        <v>0.90920000000000001</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="9"/>
+        <v>909.2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B38">
         <f>B41-B40</f>
         <v>21</v>
@@ -1218,16 +1698,54 @@
         <f>C41-C40</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="N38">
+        <f>N23-N4</f>
+        <v>23.91</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="8"/>
+        <v>0.95640000000000003</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="9"/>
+        <v>956.4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="N39">
+        <f>N27-N4</f>
+        <v>24.41</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="8"/>
+        <v>0.97640000000000005</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="9"/>
+        <v>976.40000000000009</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>43</v>
       </c>
       <c r="C40">
         <v>45</v>
       </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="N40">
+        <f>N31-N4</f>
+        <v>24.45</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="8"/>
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="9"/>
+        <v>978</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>64</v>
       </c>

--- a/4 - Závislost povrchového napětí na koncentraci povrchově aktivní látky/Data.xlsx
+++ b/4 - Závislost povrchového napětí na koncentraci povrchově aktivní látky/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\Praktikum-I\4 - Závislost povrchového napětí na koncentraci povrchově aktivní látky\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF826A5E-53A3-4979-879C-18EA10F85964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D16314-2E33-4AAB-8556-C48827529011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E046E8B8-C16B-45FA-8E82-8072ADF84730}"/>
   </bookViews>
@@ -145,8 +145,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -180,8 +180,8 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -519,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20CF96E-3CC2-4E47-AD67-B178D7198D37}">
   <dimension ref="B3:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H20" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35:P40"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1039,7 +1039,7 @@
         <v>30.816969644801507</v>
       </c>
       <c r="W19" s="3">
-        <f t="shared" ref="W12:W33" si="6">R19/J19*V19</f>
+        <f t="shared" ref="W19:W31" si="6">R19/J19*V19</f>
         <v>0.59227190453679168</v>
       </c>
     </row>
